--- a/Report/ganttChart.xlsx
+++ b/Report/ganttChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46c66270056a4b13/Documents/UWE_CS_Y2/SD/GroupProject/systems-development-group-work/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="8_{BD0E18E2-C511-4D01-B55E-1AD603F7CB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83EAA17C-6FF9-4612-BE9B-E423854943EB}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{BD0E18E2-C511-4D01-B55E-1AD603F7CB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B3B5EBA-3FC6-4288-A290-704E4246B20A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0770252E-A40D-4073-814B-41740F9415ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Task</t>
   </si>
@@ -58,13 +58,39 @@
   <si>
     <t>Sequence diagram</t>
   </si>
+  <si>
+    <t>Make test plan</t>
+  </si>
+  <si>
+    <t>Show patients</t>
+  </si>
+  <si>
+    <t>Create GUI</t>
+  </si>
+  <si>
+    <t>Generate reports/graphs</t>
+  </si>
+  <si>
+    <t>Functionality to flag patients</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,11 +127,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -168,9 +203,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$6</c:f>
+              <c:f>Sheet1!$B$3:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Use case diagram</c:v>
                 </c:pt>
@@ -179,16 +214,34 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Sequence diagram</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Make test plan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Create GUI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Show patients</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Functionality to flag patients</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Generate reports/graphs</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Testing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$5</c:f>
+              <c:f>Sheet1!$C$3:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>45337</c:v>
                 </c:pt>
@@ -196,7 +249,25 @@
                   <c:v>45337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45347</c:v>
+                  <c:v>45337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45344</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45344</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45358</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -225,9 +296,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$6</c:f>
+              <c:f>Sheet1!$B$3:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Use case diagram</c:v>
                 </c:pt>
@@ -236,16 +307,34 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Sequence diagram</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Make test plan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Create GUI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Show patients</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Functionality to flag patients</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Generate reports/graphs</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Testing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$5</c:f>
+              <c:f>Sheet1!$E$3:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -253,7 +342,25 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -993,7 +1100,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>595849</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>5730</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1323,15 +1430,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565CA785-E6F0-4881-8835-C193223C27DB}">
-  <dimension ref="B2:E5"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="133" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
@@ -1349,7 +1456,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3">
@@ -1364,7 +1471,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
@@ -1379,18 +1486,108 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>45347</v>
+        <v>45337</v>
       </c>
       <c r="D5" s="1">
-        <v>45371</v>
+        <v>45344</v>
       </c>
       <c r="E5">
         <f>D5-C5</f>
-        <v>24</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45344</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45351</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E11" si="0">D6-C6</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45344</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45358</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45344</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45358</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45358</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45365</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45358</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45365</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45365</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45372</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Report/ganttChart.xlsx
+++ b/Report/ganttChart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46c66270056a4b13/Documents/UWE_CS_Y2/SD/GroupProject/systems-development-group-work/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="8_{BD0E18E2-C511-4D01-B55E-1AD603F7CB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B3B5EBA-3FC6-4288-A290-704E4246B20A}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="8_{BD0E18E2-C511-4D01-B55E-1AD603F7CB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1C2B086-4284-457A-A245-A41B0D44E393}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0770252E-A40D-4073-814B-41740F9415ED}"/>
   </bookViews>
@@ -267,7 +267,7 @@
                   <c:v>45358</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45365</c:v>
+                  <c:v>45372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -354,10 +354,10 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7</c:v>
@@ -1134,9 +1134,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1174,7 +1174,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1280,7 +1280,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1422,7 +1422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1433,7 +1433,7 @@
   <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="133" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1553,11 +1553,11 @@
         <v>45358</v>
       </c>
       <c r="D9" s="1">
-        <v>45365</v>
+        <v>45372</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -1568,11 +1568,11 @@
         <v>45358</v>
       </c>
       <c r="D10" s="1">
-        <v>45365</v>
+        <v>45372</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
@@ -1580,10 +1580,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="1">
-        <v>45365</v>
+        <v>45372</v>
       </c>
       <c r="D11" s="1">
-        <v>45372</v>
+        <v>45379</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
